--- a/Assets/UserProfiles/20241119_Subject2_RR_Calibration.xlsx
+++ b/Assets/UserProfiles/20241119_Subject2_RR_Calibration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tysieh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tysieh\Desktop\LowerLimbRehab\EmgDance\Assets\UserProfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3184879-640C-4927-8341-E39472F24CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D6A22-DC37-4BB2-BCDE-DA325AE861BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="3240" xr2:uid="{F78ED3D7-2824-4AD5-A328-B71E9CFAB16D}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
